--- a/hasil/2023_01_lipa_4.xlsx
+++ b/hasil/2023_01_lipa_4.xlsx
@@ -89,13 +89,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 10 Maret 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -266,6 +266,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -274,9 +277,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -376,56 +376,56 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="15" fillId="5" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
@@ -737,76 +737,76 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="13.2" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="true" style="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="true" style="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="true" style="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="true" style="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="true" style="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="true" style="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="true" style="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="true" style="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="true" style="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="true" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="true" style="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="true" style="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true" style="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="true" style="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="true" style="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="true" style="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="true" style="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="true" style="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customHeight="1" ht="15.6">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" customHeight="1" ht="15.6">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" customHeight="1" ht="15.6">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" customHeight="1" ht="13.8">
+    <row r="4" spans="1:12" customHeight="1" ht="14.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:12" customHeight="1" ht="15.6">
+    <row r="5" spans="1:12" customHeight="1" ht="15.75">
       <c r="J5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" customHeight="1" ht="15.6">
+    <row r="6" spans="1:12" customHeight="1" ht="15.75">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -827,7 +827,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" customHeight="1" ht="12.75">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
@@ -837,36 +837,36 @@
       <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:12" customHeight="1" ht="48.6">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" customHeight="1" ht="16.8">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" customHeight="1" ht="17.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -902,29 +902,30 @@
       <c r="A10" s="25">
         <v>1</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" customHeight="1" ht="15.6">
+      <c r="J10" s="25"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" customHeight="1" ht="15.75">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -936,7 +937,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:12" customHeight="1" ht="15.6">
+    <row r="12" spans="1:12" customHeight="1" ht="15.75">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -980,7 +981,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:12" customHeight="1" ht="15.6">
+    <row r="15" spans="1:12" customHeight="1" ht="15.75">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="28"/>
@@ -992,7 +993,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:12" customHeight="1" ht="15.6">
+    <row r="16" spans="1:12" customHeight="1" ht="15.75">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="28"/>
@@ -1004,7 +1005,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:12" customHeight="1" ht="15.6">
+    <row r="17" spans="1:12" customHeight="1" ht="15.75">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="28"/>
@@ -1016,7 +1017,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:12" customHeight="1" ht="15.6">
+    <row r="18" spans="1:12" customHeight="1" ht="15.75">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="28"/>
@@ -1060,7 +1061,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:12" customHeight="1" ht="15.6">
+    <row r="21" spans="1:12" customHeight="1" ht="15.75">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1072,7 +1073,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:12" customHeight="1" ht="15.6">
+    <row r="22" spans="1:12" customHeight="1" ht="15.75">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1084,7 +1085,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:12" customHeight="1" ht="15.6">
+    <row r="23" spans="1:12" customHeight="1" ht="15.75">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1096,7 +1097,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:12" customHeight="1" ht="15.6">
+    <row r="24" spans="1:12" customHeight="1" ht="15.75">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1108,7 +1109,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:12" customHeight="1" ht="15.6">
+    <row r="25" spans="1:12" customHeight="1" ht="15.75">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1120,7 +1121,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:12" customHeight="1" ht="15.6">
+    <row r="26" spans="1:12" customHeight="1" ht="15.75">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1132,7 +1133,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:12" customHeight="1" ht="15.6">
+    <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1144,7 +1145,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:12" customHeight="1" ht="15.6">
+    <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1156,7 +1157,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:12" customHeight="1" ht="15.6">
+    <row r="29" spans="1:12" customHeight="1" ht="15.75">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1168,7 +1169,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:12" customHeight="1" ht="15.6">
+    <row r="30" spans="1:12" customHeight="1" ht="15.75">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1180,7 +1181,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:12" customHeight="1" ht="15.6">
+    <row r="31" spans="1:12" customHeight="1" ht="15.75">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1192,7 +1193,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:12" customHeight="1" ht="15.6">
+    <row r="32" spans="1:12" customHeight="1" ht="15.75">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1204,7 +1205,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:12" customHeight="1" ht="15.6">
+    <row r="33" spans="1:12" customHeight="1" ht="15.75">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1216,7 +1217,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:12" customHeight="1" ht="15.6">
+    <row r="34" spans="1:12" customHeight="1" ht="15.75">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1228,7 +1229,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:12" customHeight="1" ht="15.6">
+    <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1240,7 +1241,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:12" customHeight="1" ht="15.6">
+    <row r="36" spans="1:12" customHeight="1" ht="15.75">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1252,7 +1253,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:12" customHeight="1" ht="15.6">
+    <row r="37" spans="1:12" customHeight="1" ht="15.75">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1264,7 +1265,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:12" customHeight="1" ht="15.6">
+    <row r="38" spans="1:12" customHeight="1" ht="15.75">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1276,7 +1277,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:12" customHeight="1" ht="15.6">
+    <row r="39" spans="1:12" customHeight="1" ht="15.75">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1288,7 +1289,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" spans="1:12" customHeight="1" ht="15.6">
+    <row r="40" spans="1:12" customHeight="1" ht="15.75">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1300,7 +1301,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:12" customHeight="1" ht="15.6">
+    <row r="41" spans="1:12" customHeight="1" ht="15.75">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1312,7 +1313,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:12" customHeight="1" ht="15.6">
+    <row r="42" spans="1:12" customHeight="1" ht="15.75">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1324,7 +1325,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:12" customHeight="1" ht="15.6">
+    <row r="43" spans="1:12" customHeight="1" ht="15.75">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1336,7 +1337,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:12" customHeight="1" ht="15.6">
+    <row r="44" spans="1:12" customHeight="1" ht="15.75">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1348,7 +1349,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:12" customHeight="1" ht="15.6">
+    <row r="45" spans="1:12" customHeight="1" ht="15.75">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1360,7 +1361,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:12" customHeight="1" ht="15.6">
+    <row r="46" spans="1:12" customHeight="1" ht="15.75">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1372,7 +1373,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:12" customHeight="1" ht="15.6">
+    <row r="47" spans="1:12" customHeight="1" ht="15.75">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1384,7 +1385,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:12" customHeight="1" ht="15.6">
+    <row r="48" spans="1:12" customHeight="1" ht="15.75">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1396,7 +1397,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:12" customHeight="1" ht="15.6">
+    <row r="49" spans="1:12" customHeight="1" ht="15.75">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1408,7 +1409,7 @@
       <c r="I49" s="11"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="1:12" customHeight="1" ht="15.6">
+    <row r="50" spans="1:12" customHeight="1" ht="15.75">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1420,7 +1421,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="1:12" customHeight="1" ht="15.6">
+    <row r="51" spans="1:12" customHeight="1" ht="15.75">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1432,7 +1433,7 @@
       <c r="I51" s="11"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:12" customHeight="1" ht="15.6">
+    <row r="52" spans="1:12" customHeight="1" ht="15.75">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1444,7 +1445,7 @@
       <c r="I52" s="11"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:12" customHeight="1" ht="15.6">
+    <row r="53" spans="1:12" customHeight="1" ht="15.75">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1456,7 +1457,7 @@
       <c r="I53" s="11"/>
       <c r="J53" s="10"/>
     </row>
-    <row r="54" spans="1:12" customHeight="1" ht="15.6">
+    <row r="54" spans="1:12" customHeight="1" ht="15.75">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1468,7 +1469,7 @@
       <c r="I54" s="11"/>
       <c r="J54" s="10"/>
     </row>
-    <row r="55" spans="1:12" customHeight="1" ht="15.6">
+    <row r="55" spans="1:12" customHeight="1" ht="15.75">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1480,7 +1481,7 @@
       <c r="I55" s="11"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:12" customHeight="1" ht="15.6">
+    <row r="56" spans="1:12" customHeight="1" ht="15.75">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1492,7 +1493,7 @@
       <c r="I56" s="11"/>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:12" customHeight="1" ht="15.6">
+    <row r="57" spans="1:12" customHeight="1" ht="15.75">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1504,7 +1505,7 @@
       <c r="I57" s="11"/>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:12" customHeight="1" ht="15.6">
+    <row r="58" spans="1:12" customHeight="1" ht="15.75">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1516,7 +1517,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:12" customHeight="1" ht="15.6">
+    <row r="59" spans="1:12" customHeight="1" ht="15.75">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1528,7 +1529,7 @@
       <c r="I59" s="11"/>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:12" customHeight="1" ht="15.6">
+    <row r="60" spans="1:12" customHeight="1" ht="15.75">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1540,7 +1541,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:12" customHeight="1" ht="15.6">
+    <row r="61" spans="1:12" customHeight="1" ht="15.75">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1552,7 +1553,7 @@
       <c r="I61" s="11"/>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:12" customHeight="1" ht="15.6">
+    <row r="62" spans="1:12" customHeight="1" ht="15.75">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1564,7 +1565,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="10"/>
     </row>
-    <row r="63" spans="1:12" customHeight="1" ht="15.6">
+    <row r="63" spans="1:12" customHeight="1" ht="15.75">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1576,7 +1577,7 @@
       <c r="I63" s="11"/>
       <c r="J63" s="10"/>
     </row>
-    <row r="64" spans="1:12" customHeight="1" ht="15.6">
+    <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1588,7 +1589,7 @@
       <c r="I64" s="11"/>
       <c r="J64" s="10"/>
     </row>
-    <row r="65" spans="1:12" customHeight="1" ht="15.6">
+    <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1600,7 +1601,7 @@
       <c r="I65" s="11"/>
       <c r="J65" s="10"/>
     </row>
-    <row r="66" spans="1:12" customHeight="1" ht="15.6">
+    <row r="66" spans="1:12" customHeight="1" ht="15.75">
       <c r="A66" s="9"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1612,7 +1613,7 @@
       <c r="I66" s="11"/>
       <c r="J66" s="10"/>
     </row>
-    <row r="67" spans="1:12" customHeight="1" ht="15.6">
+    <row r="67" spans="1:12" customHeight="1" ht="15.75">
       <c r="A67" s="9"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1624,7 +1625,7 @@
       <c r="I67" s="11"/>
       <c r="J67" s="10"/>
     </row>
-    <row r="68" spans="1:12" customHeight="1" ht="15.6">
+    <row r="68" spans="1:12" customHeight="1" ht="15.75">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1636,7 +1637,7 @@
       <c r="I68" s="11"/>
       <c r="J68" s="10"/>
     </row>
-    <row r="69" spans="1:12" customHeight="1" ht="15.6">
+    <row r="69" spans="1:12" customHeight="1" ht="15.75">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -1648,7 +1649,7 @@
       <c r="I69" s="11"/>
       <c r="J69" s="10"/>
     </row>
-    <row r="70" spans="1:12" customHeight="1" ht="15.6">
+    <row r="70" spans="1:12" customHeight="1" ht="15.75">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -1660,7 +1661,7 @@
       <c r="I70" s="11"/>
       <c r="J70" s="10"/>
     </row>
-    <row r="71" spans="1:12" customHeight="1" ht="15.6">
+    <row r="71" spans="1:12" customHeight="1" ht="15.75">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1672,7 +1673,7 @@
       <c r="I71" s="11"/>
       <c r="J71" s="10"/>
     </row>
-    <row r="72" spans="1:12" customHeight="1" ht="15.6">
+    <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -1684,7 +1685,7 @@
       <c r="I72" s="11"/>
       <c r="J72" s="10"/>
     </row>
-    <row r="73" spans="1:12" customHeight="1" ht="15.6">
+    <row r="73" spans="1:12" customHeight="1" ht="15.75">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -1696,7 +1697,7 @@
       <c r="I73" s="11"/>
       <c r="J73" s="10"/>
     </row>
-    <row r="74" spans="1:12" customHeight="1" ht="15.6">
+    <row r="74" spans="1:12" customHeight="1" ht="15.75">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -1708,7 +1709,7 @@
       <c r="I74" s="11"/>
       <c r="J74" s="10"/>
     </row>
-    <row r="75" spans="1:12" customHeight="1" ht="15.6">
+    <row r="75" spans="1:12" customHeight="1" ht="15.75">
       <c r="A75" s="9"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -1720,7 +1721,7 @@
       <c r="I75" s="11"/>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:12" customHeight="1" ht="15.6">
+    <row r="76" spans="1:12" customHeight="1" ht="15.75">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -1732,7 +1733,7 @@
       <c r="I76" s="11"/>
       <c r="J76" s="10"/>
     </row>
-    <row r="77" spans="1:12" customHeight="1" ht="15.6">
+    <row r="77" spans="1:12" customHeight="1" ht="15.75">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -1744,7 +1745,7 @@
       <c r="I77" s="11"/>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" spans="1:12" customHeight="1" ht="15.6">
+    <row r="78" spans="1:12" customHeight="1" ht="15.75">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -1756,7 +1757,7 @@
       <c r="I78" s="11"/>
       <c r="J78" s="10"/>
     </row>
-    <row r="79" spans="1:12" customHeight="1" ht="15.6">
+    <row r="79" spans="1:12" customHeight="1" ht="15.75">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -1768,7 +1769,7 @@
       <c r="I79" s="11"/>
       <c r="J79" s="10"/>
     </row>
-    <row r="80" spans="1:12" customHeight="1" ht="15.6">
+    <row r="80" spans="1:12" customHeight="1" ht="15.75">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -1780,7 +1781,7 @@
       <c r="I80" s="11"/>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" spans="1:12" customHeight="1" ht="15.6">
+    <row r="81" spans="1:12" customHeight="1" ht="15.75">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -1792,7 +1793,7 @@
       <c r="I81" s="11"/>
       <c r="J81" s="10"/>
     </row>
-    <row r="82" spans="1:12" customHeight="1" ht="15.6">
+    <row r="82" spans="1:12" customHeight="1" ht="15.75">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -1804,7 +1805,7 @@
       <c r="I82" s="11"/>
       <c r="J82" s="10"/>
     </row>
-    <row r="83" spans="1:12" customHeight="1" ht="15.6">
+    <row r="83" spans="1:12" customHeight="1" ht="15.75">
       <c r="A83" s="9"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -1816,7 +1817,7 @@
       <c r="I83" s="11"/>
       <c r="J83" s="10"/>
     </row>
-    <row r="84" spans="1:12" customHeight="1" ht="15.6">
+    <row r="84" spans="1:12" customHeight="1" ht="15.75">
       <c r="A84" s="9"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -1828,7 +1829,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="10"/>
     </row>
-    <row r="85" spans="1:12" customHeight="1" ht="15.6">
+    <row r="85" spans="1:12" customHeight="1" ht="15.75">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -1840,7 +1841,7 @@
       <c r="I85" s="11"/>
       <c r="J85" s="10"/>
     </row>
-    <row r="86" spans="1:12" customHeight="1" ht="15.6">
+    <row r="86" spans="1:12" customHeight="1" ht="15.75">
       <c r="A86" s="9"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -1852,7 +1853,7 @@
       <c r="I86" s="11"/>
       <c r="J86" s="10"/>
     </row>
-    <row r="87" spans="1:12" customHeight="1" ht="15.6">
+    <row r="87" spans="1:12" customHeight="1" ht="15.75">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -1864,7 +1865,7 @@
       <c r="I87" s="11"/>
       <c r="J87" s="10"/>
     </row>
-    <row r="88" spans="1:12" customHeight="1" ht="15.6">
+    <row r="88" spans="1:12" customHeight="1" ht="15.75">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -1876,7 +1877,7 @@
       <c r="I88" s="11"/>
       <c r="J88" s="10"/>
     </row>
-    <row r="89" spans="1:12" customHeight="1" ht="15.6">
+    <row r="89" spans="1:12" customHeight="1" ht="15.75">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -1888,7 +1889,7 @@
       <c r="I89" s="11"/>
       <c r="J89" s="10"/>
     </row>
-    <row r="90" spans="1:12" customHeight="1" ht="15.6">
+    <row r="90" spans="1:12" customHeight="1" ht="15.75">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -1900,7 +1901,7 @@
       <c r="I90" s="11"/>
       <c r="J90" s="10"/>
     </row>
-    <row r="91" spans="1:12" customHeight="1" ht="15.6">
+    <row r="91" spans="1:12" customHeight="1" ht="15.75">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -1912,7 +1913,7 @@
       <c r="I91" s="11"/>
       <c r="J91" s="10"/>
     </row>
-    <row r="92" spans="1:12" customHeight="1" ht="15.6">
+    <row r="92" spans="1:12" customHeight="1" ht="15.75">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -1924,7 +1925,7 @@
       <c r="I92" s="11"/>
       <c r="J92" s="10"/>
     </row>
-    <row r="93" spans="1:12" customHeight="1" ht="15.6">
+    <row r="93" spans="1:12" customHeight="1" ht="15.75">
       <c r="A93" s="9"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -1936,7 +1937,7 @@
       <c r="I93" s="11"/>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:12" customHeight="1" ht="15.6">
+    <row r="94" spans="1:12" customHeight="1" ht="15.75">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -1948,7 +1949,7 @@
       <c r="I94" s="11"/>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:12" customHeight="1" ht="15.6">
+    <row r="95" spans="1:12" customHeight="1" ht="15.75">
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -1960,7 +1961,7 @@
       <c r="I95" s="11"/>
       <c r="J95" s="10"/>
     </row>
-    <row r="96" spans="1:12" customHeight="1" ht="15.6">
+    <row r="96" spans="1:12" customHeight="1" ht="15.75">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -1972,7 +1973,7 @@
       <c r="I96" s="11"/>
       <c r="J96" s="10"/>
     </row>
-    <row r="97" spans="1:12" customHeight="1" ht="15.6">
+    <row r="97" spans="1:12" customHeight="1" ht="15.75">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -1984,7 +1985,7 @@
       <c r="I97" s="11"/>
       <c r="J97" s="10"/>
     </row>
-    <row r="98" spans="1:12" customHeight="1" ht="15.6">
+    <row r="98" spans="1:12" customHeight="1" ht="15.75">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -1996,7 +1997,7 @@
       <c r="I98" s="11"/>
       <c r="J98" s="10"/>
     </row>
-    <row r="99" spans="1:12" customHeight="1" ht="15.6">
+    <row r="99" spans="1:12" customHeight="1" ht="15.75">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -2008,7 +2009,7 @@
       <c r="I99" s="11"/>
       <c r="J99" s="10"/>
     </row>
-    <row r="100" spans="1:12" customHeight="1" ht="15.6">
+    <row r="100" spans="1:12" customHeight="1" ht="15.75">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -2020,7 +2021,7 @@
       <c r="I100" s="11"/>
       <c r="J100" s="10"/>
     </row>
-    <row r="101" spans="1:12" customHeight="1" ht="13.2">
+    <row r="101" spans="1:12" customHeight="1" ht="12.75">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -2032,7 +2033,7 @@
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:12" customHeight="1" ht="13.2">
+    <row r="102" spans="1:12" customHeight="1" ht="12.75">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -2044,7 +2045,7 @@
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:12" customHeight="1" ht="13.2">
+    <row r="103" spans="1:12" customHeight="1" ht="12.75">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -2056,7 +2057,7 @@
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:12" customHeight="1" ht="13.2">
+    <row r="104" spans="1:12" customHeight="1" ht="12.75">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -2068,7 +2069,7 @@
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:12" customHeight="1" ht="13.2">
+    <row r="105" spans="1:12" customHeight="1" ht="12.75">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -2080,7 +2081,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:12" customHeight="1" ht="13.2">
+    <row r="106" spans="1:12" customHeight="1" ht="12.75">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -2092,7 +2093,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:12" customHeight="1" ht="13.2">
+    <row r="107" spans="1:12" customHeight="1" ht="12.75">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -2104,7 +2105,7 @@
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:12" customHeight="1" ht="13.2">
+    <row r="108" spans="1:12" customHeight="1" ht="12.75">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -2116,7 +2117,7 @@
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:12" customHeight="1" ht="13.2">
+    <row r="109" spans="1:12" customHeight="1" ht="12.75">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -2128,7 +2129,7 @@
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:12" customHeight="1" ht="13.2">
+    <row r="110" spans="1:12" customHeight="1" ht="12.75">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -2143,11 +2144,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
@@ -2158,10 +2154,15 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="2.19" right="0.19685039370079" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="5" orientation="landscape" scale="95" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.98425196850394" right="0.39370078740157" top="0.31496062992126" bottom="0.23622047244094" header="0" footer="0"/>
+  <pageSetup paperSize="14" orientation="landscape" scale="86" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_4.xlsx
+++ b/hasil/2023_01_lipa_4.xlsx
@@ -89,7 +89,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_4.xlsx
+++ b/hasil/2023_01_lipa_4.xlsx
@@ -89,7 +89,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 04 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_4.xlsx
+++ b/hasil/2023_01_lipa_4.xlsx
@@ -89,7 +89,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 04 September 2023</t>
+    <t>Ternate , 05 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
